--- a/haunting_mars/stats_kwame.xlsx
+++ b/haunting_mars/stats_kwame.xlsx
@@ -1,18 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11127"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dare/Documents/personal/rpg/posthuman/haunting_mars/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E74910-12D1-4540-B7EF-E96323237260}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14300" yWindow="120" windowWidth="20460" windowHeight="20300" tabRatio="500"/>
+    <workbookView xWindow="13140" yWindow="500" windowWidth="20460" windowHeight="20300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="F" sheetId="1" r:id="rId1"/>
     <sheet name="OUTPUT" sheetId="2" r:id="rId2"/>
     <sheet name="SkillFormulas" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -21,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="45">
   <si>
     <t>ST</t>
   </si>
@@ -128,32 +145,53 @@
     <t>Kwame Larbi</t>
   </si>
   <si>
-    <t>Compartmentalised Mind 1, Status -2 (Bodiless), Secret: Infiltrator, Secret: AGI, Math Talent +1, Language Talent, Klutz, Confused</t>
-  </si>
-  <si>
     <t>Observation</t>
   </si>
   <si>
     <t>Speed-Reading</t>
   </si>
   <si>
-    <t>DR 3, Mesh Inserts, Cyberbrain, Mnemonic Augmentation, Cortical Stack, Access Jacks, Chummy</t>
-  </si>
-  <si>
-    <t>Synth RR C Flexi-Skin)</t>
-  </si>
-  <si>
     <t>Physics</t>
   </si>
   <si>
     <t>Mathematics (Statistics)</t>
+  </si>
+  <si>
+    <t>Splicer</t>
+  </si>
+  <si>
+    <t>Compartmentalised Mind 1, Status -2 (Bodiless), Secret: Infiltrator, Secret: AGI, Math Talent +1, Language Talent, Klutz, Confused, Biomorph Unfamiliarity</t>
+  </si>
+  <si>
+    <t>Basic Biomods, Mesh Inserts, Cortical Stack, Emotional Dampers</t>
+  </si>
+  <si>
+    <t>LINE 2:</t>
+  </si>
+  <si>
+    <r>
+      <t>Asian</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 169 cm, 60 kg</t>
+    </r>
+  </si>
+  <si>
+    <t>Acting</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -175,6 +213,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -198,12 +237,21 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -388,20 +436,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="163">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -570,6 +617,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -894,14 +949,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27.1640625" customWidth="1"/>
     <col min="2" max="2" width="4.83203125" customWidth="1"/>
@@ -910,7 +965,7 @@
     <col min="6" max="8" width="6.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>34</v>
       </c>
@@ -922,7 +977,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
@@ -941,20 +996,24 @@
       <c r="H2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-    </row>
-    <row r="3" spans="1:14" s="3" customFormat="1" ht="20">
+      <c r="I2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="3">
         <f t="shared" ref="C3:H3" si="0">C4+C5</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" s="3">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="3">
         <f t="shared" si="0"/>
@@ -962,45 +1021,45 @@
       </c>
       <c r="F3" s="3">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G3" s="3">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H3" s="3">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>39</v>
       </c>
       <c r="C4">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>11</v>
+      </c>
+      <c r="E4">
+        <v>11</v>
+      </c>
+      <c r="F4">
+        <v>11</v>
+      </c>
+      <c r="G4">
+        <v>11</v>
+      </c>
+      <c r="H4">
         <v>12</v>
-      </c>
-      <c r="D4">
-        <v>10</v>
-      </c>
-      <c r="E4" s="4">
-        <v>11</v>
-      </c>
-      <c r="F4">
-        <v>10</v>
-      </c>
-      <c r="G4">
-        <v>10</v>
-      </c>
-      <c r="H4">
-        <v>11</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1010,22 +1069,21 @@
       <c r="D5">
         <v>-1</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5">
         <v>4</v>
       </c>
-      <c r="F5" s="4"/>
       <c r="J5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5">
         <f>(D3+H3)/4+L5</f>
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -1033,43 +1091,43 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="77" customHeight="1">
-      <c r="A7" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="J7" s="8" t="s">
+    <row r="7" spans="1:14" ht="77" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="J7" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="41" customHeight="1">
-      <c r="A9" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-    </row>
-    <row r="11" spans="1:14">
+    <row r="9" spans="1:14" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -1089,9 +1147,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B12" t="s">
         <v>2</v>
@@ -1111,7 +1169,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -1133,7 +1191,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -1152,7 +1210,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -1171,7 +1229,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -1190,7 +1248,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -1202,14 +1260,14 @@
       </c>
       <c r="E17" s="1">
         <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="H17">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1221,14 +1279,14 @@
       </c>
       <c r="E18" s="1">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H18">
         <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -1247,7 +1305,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -1266,7 +1324,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -1285,7 +1343,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -1297,14 +1355,14 @@
       </c>
       <c r="E22" s="1">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H22">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -1323,9 +1381,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B24" t="s">
         <v>2</v>
@@ -1342,9 +1400,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B25" t="s">
         <v>2</v>
@@ -1361,9 +1419,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B26" t="s">
         <v>2</v>
@@ -1380,17 +1438,29 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
-      <c r="E27" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H27" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>-5</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27" s="1">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E28" s="1" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -1400,7 +1470,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E29" s="1" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -1410,7 +1480,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E30" s="1" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -1420,7 +1490,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E31" s="1" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -1430,7 +1500,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E32" s="1" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -1440,7 +1510,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="33" spans="5:8">
+    <row r="33" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E33" s="1" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -1450,7 +1520,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="34" spans="5:8">
+    <row r="34" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E34" s="1" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -1460,7 +1530,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="35" spans="5:8">
+    <row r="35" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E35" s="1" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
@@ -1470,7 +1540,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="36" spans="5:8">
+    <row r="36" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E36" s="1" t="e">
         <f t="shared" ref="E36:E41" si="4">H36+C36+D36</f>
         <v>#N/A</v>
@@ -1480,7 +1550,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="37" spans="5:8">
+    <row r="37" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E37" s="1" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
@@ -1490,7 +1560,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="38" spans="5:8">
+    <row r="38" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E38" s="1" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
@@ -1500,7 +1570,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="39" spans="5:8">
+    <row r="39" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E39" s="1" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
@@ -1510,7 +1580,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="40" spans="5:8">
+    <row r="40" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E40" s="1" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
@@ -1520,7 +1590,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="41" spans="5:8">
+    <row r="41" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E41" s="1" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
@@ -1547,103 +1617,103 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A1:A15"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="7" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="str">
         <f>F!A1</f>
         <v>Kwame Larbi</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
         <f>F!J1</f>
         <v>Analyst; made 2126</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
-        <f>UPPER(F!A4)&amp;": "</f>
-        <v xml:space="preserve">SYNTH RR C FLEXI-SKIN): </v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
+        <f>UPPER(F!A4)&amp;": "&amp;(F!J2)</f>
+        <v>SPLICER: Asian, 169 cm, 60 kg</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
         <f>"ST "&amp;(F!C3)&amp;" DX "&amp;(F!D3)&amp;" IQ "&amp;(F!E3)&amp;" WILL "&amp;(F!F3)&amp;" PER "&amp;(F!G3)&amp;" HT "&amp;(F!H3)</f>
-        <v>ST 11 DX 9 IQ 15 WILL 10 PER 10 HT 11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
+        <v>ST 10 DX 10 IQ 15 WILL 11 PER 11 HT 12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
         <f>"Speed "&amp;F!K5</f>
-        <v>Speed 5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
+        <v>Speed 5,5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
         <f>F!A7</f>
-        <v>DR 3, Mesh Inserts, Cyberbrain, Mnemonic Augmentation, Cortical Stack, Access Jacks, Chummy</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
+        <v>Basic Biomods, Mesh Inserts, Cortical Stack, Emotional Dampers</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="str">
         <f>SkillFormulas!E22&amp;SkillFormulas!F22&amp;SkillFormulas!G22&amp;SkillFormulas!H22&amp;SkillFormulas!I22&amp;SkillFormulas!J22</f>
         <v xml:space="preserve">Somatic Aptitude -1, Coordination Aptitude -1, Intelligence Aptitude 4, </v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="str">
         <f>F!A9</f>
-        <v>Compartmentalised Mind 1, Status -2 (Bodiless), Secret: Infiltrator, Secret: AGI, Math Talent +1, Language Talent, Klutz, Confused</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
+        <v>Compartmentalised Mind 1, Status -2 (Bodiless), Secret: Infiltrator, Secret: AGI, Math Talent +1, Language Talent, Klutz, Confused, Biomorph Unfamiliarity</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="str">
         <f>SkillFormulas!G7</f>
         <v xml:space="preserve">English (N/N), Chinese (N/N), </v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
         <f>SkillFormulas!$G$1</f>
-        <v xml:space="preserve">Mathematics (Statistics)-17, Intelligence Analysis-17, Finance-16, Market Analysis-17, Diplomacy-13, Driving: Drone-10, </v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
+        <v xml:space="preserve">Mathematics (Statistics)-17, Intelligence Analysis-17, Finance-16, Market Analysis-17, Diplomacy-13, Driving: Drone-11, </v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
         <f>SkillFormulas!$G$2</f>
-        <v xml:space="preserve">Free Fall-7, Economics-16, Computer Programming-16, Research-17, Autohypnosis-12, Expert: Projections-16, </v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
+        <v xml:space="preserve">Free Fall-8, Economics-16, Computer Programming-16, Research-17, Autohypnosis-13, Expert: Projections-16, </v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
         <f>SkillFormulas!$G$3</f>
-        <v xml:space="preserve">Observation-16, Speed-Reading-17, Physics-10, </v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
+        <v xml:space="preserve">Observation-16, Speed-Reading-17, Physics-10, Acting-12, </v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
         <f>SkillFormulas!G4</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
         <f>SkillFormulas!G5</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
         <f>F!J7</f>
         <v>Unfamiliar with physical morph</v>
@@ -1661,19 +1731,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="str">
         <f>F!A12&amp;"-"&amp;F!E12&amp;", "</f>
         <v xml:space="preserve">Mathematics (Statistics)-17, </v>
@@ -1692,10 +1762,10 @@
       </c>
       <c r="G1" t="str">
         <f>B1&amp;B2&amp;B3&amp;B4&amp;B5&amp;B6</f>
-        <v xml:space="preserve">Mathematics (Statistics)-17, Intelligence Analysis-17, Finance-16, Market Analysis-17, Diplomacy-13, Driving: Drone-10, </v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v xml:space="preserve">Mathematics (Statistics)-17, Intelligence Analysis-17, Finance-16, Market Analysis-17, Diplomacy-13, Driving: Drone-11, </v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
         <f>F!A13&amp;"-"&amp;F!E13&amp;", "</f>
         <v xml:space="preserve">Intelligence Analysis-17, </v>
@@ -1714,10 +1784,10 @@
       </c>
       <c r="G2" t="str">
         <f>B7&amp;B8&amp;B9&amp;B10&amp;B11&amp;B12</f>
-        <v xml:space="preserve">Free Fall-7, Economics-16, Computer Programming-16, Research-17, Autohypnosis-12, Expert: Projections-16, </v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v xml:space="preserve">Free Fall-8, Economics-16, Computer Programming-16, Research-17, Autohypnosis-13, Expert: Projections-16, </v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
         <f>F!A14&amp;"-"&amp;F!E14&amp;", "</f>
         <v xml:space="preserve">Finance-16, </v>
@@ -1736,10 +1806,10 @@
       </c>
       <c r="G3" t="str">
         <f>B13&amp;B14&amp;B15&amp;B16&amp;B17&amp;B18</f>
-        <v xml:space="preserve">Observation-16, Speed-Reading-17, Physics-10, </v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v xml:space="preserve">Observation-16, Speed-Reading-17, Physics-10, Acting-12, </v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
         <f>F!A15&amp;"-"&amp;F!E15&amp;", "</f>
         <v xml:space="preserve">Market Analysis-17, </v>
@@ -1761,7 +1831,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
         <f>F!A16&amp;"-"&amp;F!E16&amp;", "</f>
         <v xml:space="preserve">Diplomacy-13, </v>
@@ -1783,14 +1853,14 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
         <f>F!A17&amp;"-"&amp;F!E17&amp;", "</f>
-        <v xml:space="preserve">Driving: Drone-10, </v>
+        <v xml:space="preserve">Driving: Drone-11, </v>
       </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Driving: Drone-10, </v>
+        <v xml:space="preserve">Driving: Drone-11, </v>
       </c>
       <c r="D6" t="str">
         <f>F!J17&amp;", "</f>
@@ -1801,14 +1871,14 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="str">
         <f>F!A18&amp;"-"&amp;F!E18&amp;", "</f>
-        <v xml:space="preserve">Free Fall-7, </v>
+        <v xml:space="preserve">Free Fall-8, </v>
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Free Fall-7, </v>
+        <v xml:space="preserve">Free Fall-8, </v>
       </c>
       <c r="D7" t="str">
         <f>F!J18&amp;", "</f>
@@ -1823,7 +1893,7 @@
         <v xml:space="preserve">English (N/N), Chinese (N/N), </v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="str">
         <f>F!A19&amp;"-"&amp;F!E19&amp;", "</f>
         <v xml:space="preserve">Economics-16, </v>
@@ -1841,7 +1911,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="str">
         <f>F!A20&amp;"-"&amp;F!E20&amp;", "</f>
         <v xml:space="preserve">Computer Programming-16, </v>
@@ -1859,7 +1929,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
         <f>F!A21&amp;"-"&amp;F!E21&amp;", "</f>
         <v xml:space="preserve">Research-17, </v>
@@ -1869,17 +1939,17 @@
         <v xml:space="preserve">Research-17, </v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
         <f>F!A22&amp;"-"&amp;F!E22&amp;", "</f>
-        <v xml:space="preserve">Autohypnosis-12, </v>
+        <v xml:space="preserve">Autohypnosis-13, </v>
       </c>
       <c r="B11" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Autohypnosis-12, </v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v xml:space="preserve">Autohypnosis-13, </v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
         <f>F!A23&amp;"-"&amp;F!E23&amp;", "</f>
         <v xml:space="preserve">Expert: Projections-16, </v>
@@ -1889,7 +1959,7 @@
         <v xml:space="preserve">Expert: Projections-16, </v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
         <f>F!A24&amp;"-"&amp;F!E24&amp;", "</f>
         <v xml:space="preserve">Observation-16, </v>
@@ -1899,7 +1969,7 @@
         <v xml:space="preserve">Observation-16, </v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
         <f>F!A25&amp;"-"&amp;F!E25&amp;", "</f>
         <v xml:space="preserve">Speed-Reading-17, </v>
@@ -1909,7 +1979,7 @@
         <v xml:space="preserve">Speed-Reading-17, </v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
         <f>F!A26&amp;"-"&amp;F!E26&amp;", "</f>
         <v xml:space="preserve">Physics-10, </v>
@@ -1919,17 +1989,17 @@
         <v xml:space="preserve">Physics-10, </v>
       </c>
     </row>
-    <row r="16" spans="1:7">
-      <c r="A16" t="e">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="str">
         <f>F!A27&amp;"-"&amp;F!E27&amp;", "</f>
-        <v>#N/A</v>
+        <v xml:space="preserve">Acting-12, </v>
       </c>
       <c r="B16" t="str">
         <f t="shared" ref="B16:B30" si="2">IF(ISNUMBER(SEARCH("-",A16)),A16,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+        <v xml:space="preserve">Acting-12, </v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="e">
         <f>F!A28&amp;"-"&amp;F!E28&amp;", "</f>
         <v>#N/A</v>
@@ -1939,7 +2009,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="e">
         <f>F!A29&amp;"-"&amp;F!E29&amp;", "</f>
         <v>#N/A</v>
@@ -1949,7 +2019,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="e">
         <f>F!A30&amp;"-"&amp;F!E30&amp;", "</f>
         <v>#N/A</v>
@@ -1959,7 +2029,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="e">
         <f>F!A31&amp;"-"&amp;F!E31&amp;", "</f>
         <v>#N/A</v>
@@ -1969,7 +2039,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="e">
         <f>F!A32&amp;"-"&amp;F!E32&amp;", "</f>
         <v>#N/A</v>
@@ -1979,7 +2049,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="e">
         <f>F!A33&amp;"-"&amp;F!E33&amp;", "</f>
         <v>#N/A</v>
@@ -2013,7 +2083,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="e">
         <f>F!A34&amp;"-"&amp;F!E34&amp;", "</f>
         <v>#N/A</v>
@@ -2023,7 +2093,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="e">
         <f>F!A35&amp;"-"&amp;F!E35&amp;", "</f>
         <v>#N/A</v>
@@ -2033,7 +2103,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="e">
         <f>F!A36&amp;"-"&amp;F!E36&amp;", "</f>
         <v>#N/A</v>
@@ -2043,7 +2113,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="e">
         <f>F!A37&amp;"-"&amp;F!E37&amp;", "</f>
         <v>#N/A</v>
@@ -2053,7 +2123,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="e">
         <f>F!A38&amp;"-"&amp;F!E38&amp;", "</f>
         <v>#N/A</v>
@@ -2063,7 +2133,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="e">
         <f>F!A39&amp;"-"&amp;F!E39&amp;", "</f>
         <v>#N/A</v>
@@ -2073,7 +2143,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="e">
         <f>F!A40&amp;"-"&amp;F!E40&amp;", "</f>
         <v>#N/A</v>
@@ -2083,7 +2153,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="e">
         <f>F!A41&amp;"-"&amp;F!E41&amp;", "</f>
         <v>#N/A</v>

--- a/haunting_mars/stats_kwame.xlsx
+++ b/haunting_mars/stats_kwame.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10114"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dare/Documents/personal/rpg/posthuman/haunting_mars/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E74910-12D1-4540-B7EF-E96323237260}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC8CAA08-FE5B-384E-8372-2A6B78855E21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13140" yWindow="500" windowWidth="20460" windowHeight="20300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="47">
   <si>
     <t>ST</t>
   </si>
@@ -157,41 +157,35 @@
     <t>Mathematics (Statistics)</t>
   </si>
   <si>
-    <t>Splicer</t>
-  </si>
-  <si>
     <t>Compartmentalised Mind 1, Status -2 (Bodiless), Secret: Infiltrator, Secret: AGI, Math Talent +1, Language Talent, Klutz, Confused, Biomorph Unfamiliarity</t>
   </si>
   <si>
-    <t>Basic Biomods, Mesh Inserts, Cortical Stack, Emotional Dampers</t>
-  </si>
-  <si>
     <t>LINE 2:</t>
   </si>
   <si>
-    <r>
-      <t>Asian</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, 169 cm, 60 kg</t>
-    </r>
-  </si>
-  <si>
     <t>Acting</t>
+  </si>
+  <si>
+    <t>175 cm, 90 kg</t>
+  </si>
+  <si>
+    <t>Savoir-Faire: corporate</t>
+  </si>
+  <si>
+    <t>Video Gaming</t>
+  </si>
+  <si>
+    <t>Ocon SFF Lo-Grav</t>
+  </si>
+  <si>
+    <t>DR 3, Mesh Inserts, Cyberbrain, Mnemonic Augmentation, Cortical Stack, Access Jacks</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -246,13 +240,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -436,7 +423,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -448,7 +435,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="163">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -953,7 +939,7 @@
   <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="A7" sqref="A7:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -997,10 +983,10 @@
         <v>4</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" t="s">
         <v>42</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:14" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.25">
@@ -1009,7 +995,7 @@
       </c>
       <c r="C3" s="3">
         <f t="shared" ref="C3:H3" si="0">C4+C5</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" s="3">
         <f t="shared" si="0"/>
@@ -1017,44 +1003,44 @@
       </c>
       <c r="E3" s="3">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F3" s="3">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G3" s="3">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H3" s="3">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4">
         <v>11</v>
       </c>
       <c r="E4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H4">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -1077,7 +1063,7 @@
       </c>
       <c r="K5">
         <f>(D3+H3)/4+L5</f>
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1093,7 +1079,7 @@
     </row>
     <row r="7" spans="1:14" ht="77" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -1117,7 +1103,7 @@
     </row>
     <row r="9" spans="1:14" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -1159,11 +1145,11 @@
       </c>
       <c r="E12" s="1">
         <f t="shared" ref="E12:E35" si="1">H12+C12+D12</f>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H12">
         <f>INDEX($C$3:$H$3,(MATCH($B12,$2:$2,0)-2))</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J12" t="s">
         <v>32</v>
@@ -1181,11 +1167,11 @@
       </c>
       <c r="E13" s="1">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H13">
         <f t="shared" ref="H13:H29" si="2">INDEX($C$3:$H$3,(MATCH($B13,$2:$2,0)-2))</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J13" t="s">
         <v>33</v>
@@ -1203,11 +1189,11 @@
       </c>
       <c r="E14" s="1">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H14">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
@@ -1222,11 +1208,11 @@
       </c>
       <c r="E15" s="1">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H15">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
@@ -1241,11 +1227,11 @@
       </c>
       <c r="E16" s="1">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H16">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -1298,11 +1284,11 @@
       </c>
       <c r="E19" s="1">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H19">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -1317,11 +1303,11 @@
       </c>
       <c r="E20" s="1">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H20">
         <f>INDEX($C$3:$H$3,(MATCH($B20,$2:$2,0)-2))</f>
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -1336,11 +1322,11 @@
       </c>
       <c r="E21" s="1">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H21">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -1355,11 +1341,11 @@
       </c>
       <c r="E22" s="1">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H22">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -1374,11 +1360,11 @@
       </c>
       <c r="E23" s="1">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H23">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -1393,11 +1379,11 @@
       </c>
       <c r="E24" s="1">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H24">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -1412,11 +1398,11 @@
       </c>
       <c r="E25" s="1">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H25">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -1431,16 +1417,16 @@
       </c>
       <c r="E26" s="1">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H26">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B27" t="s">
         <v>2</v>
@@ -1448,46 +1434,70 @@
       <c r="C27">
         <v>-5</v>
       </c>
-      <c r="D27">
-        <v>2</v>
-      </c>
       <c r="E27" s="1">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H27">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E28" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H28" t="e">
+      <c r="A28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>-5</v>
+      </c>
+      <c r="E28" s="1">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="H28">
         <f>INDEX($C$3:$H$3,(MATCH($B28,$2:$2,0)-2))</f>
-        <v>#N/A</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E29" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H29" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
+      <c r="A29" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>-3</v>
+      </c>
+      <c r="E29" s="1">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="2"/>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E30" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H30" t="e">
+      <c r="A30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30">
+        <v>-5</v>
+      </c>
+      <c r="E30" s="1">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="H30">
         <f t="shared" ref="H30:H41" si="3">INDEX($C$3:$H$3,(MATCH($B30,$2:$2,0)-2))</f>
-        <v>#N/A</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
@@ -1621,7 +1631,7 @@
   <dimension ref="A1:A15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A15" sqref="A1:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1644,25 +1654,25 @@
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
         <f>UPPER(F!A4)&amp;": "&amp;(F!J2)</f>
-        <v>SPLICER: Asian, 169 cm, 60 kg</v>
+        <v>OCON SFF LO-GRAV: 175 cm, 90 kg</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
         <f>"ST "&amp;(F!C3)&amp;" DX "&amp;(F!D3)&amp;" IQ "&amp;(F!E3)&amp;" WILL "&amp;(F!F3)&amp;" PER "&amp;(F!G3)&amp;" HT "&amp;(F!H3)</f>
-        <v>ST 10 DX 10 IQ 15 WILL 11 PER 11 HT 12</v>
+        <v>ST 9 DX 10 IQ 14 WILL 10 PER 10 HT 10</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
         <f>"Speed "&amp;F!K5</f>
-        <v>Speed 5,5</v>
+        <v>Speed 5</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
         <f>F!A7</f>
-        <v>Basic Biomods, Mesh Inserts, Cortical Stack, Emotional Dampers</v>
+        <v>DR 3, Mesh Inserts, Cyberbrain, Mnemonic Augmentation, Cortical Stack, Access Jacks</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
@@ -1686,25 +1696,25 @@
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
         <f>SkillFormulas!$G$1</f>
-        <v xml:space="preserve">Mathematics (Statistics)-17, Intelligence Analysis-17, Finance-16, Market Analysis-17, Diplomacy-13, Driving: Drone-11, </v>
+        <v xml:space="preserve">Mathematics (Statistics)-16, Intelligence Analysis-16, Finance-15, Market Analysis-16, Diplomacy-12, Driving: Drone-11, </v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
         <f>SkillFormulas!$G$2</f>
-        <v xml:space="preserve">Free Fall-8, Economics-16, Computer Programming-16, Research-17, Autohypnosis-13, Expert: Projections-16, </v>
+        <v xml:space="preserve">Free Fall-8, Economics-15, Computer Programming-15, Research-16, Autohypnosis-12, Expert: Projections-15, </v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
         <f>SkillFormulas!$G$3</f>
-        <v xml:space="preserve">Observation-16, Speed-Reading-17, Physics-10, Acting-12, </v>
+        <v xml:space="preserve">Observation-15, Speed-Reading-16, Physics-9, Acting-9, Savoir-Faire: corporate-9, Video Gaming-11, </v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
         <f>SkillFormulas!G4</f>
-        <v/>
+        <v xml:space="preserve">Physics-9, </v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
@@ -1746,11 +1756,11 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="str">
         <f>F!A12&amp;"-"&amp;F!E12&amp;", "</f>
-        <v xml:space="preserve">Mathematics (Statistics)-17, </v>
+        <v xml:space="preserve">Mathematics (Statistics)-16, </v>
       </c>
       <c r="B1" t="str">
         <f t="shared" ref="B1:B15" si="0">IF(ISNUMBER(SEARCH("-",A1)),A1,"")</f>
-        <v xml:space="preserve">Mathematics (Statistics)-17, </v>
+        <v xml:space="preserve">Mathematics (Statistics)-16, </v>
       </c>
       <c r="D1" t="str">
         <f>F!J12&amp;", "</f>
@@ -1762,17 +1772,17 @@
       </c>
       <c r="G1" t="str">
         <f>B1&amp;B2&amp;B3&amp;B4&amp;B5&amp;B6</f>
-        <v xml:space="preserve">Mathematics (Statistics)-17, Intelligence Analysis-17, Finance-16, Market Analysis-17, Diplomacy-13, Driving: Drone-11, </v>
+        <v xml:space="preserve">Mathematics (Statistics)-16, Intelligence Analysis-16, Finance-15, Market Analysis-16, Diplomacy-12, Driving: Drone-11, </v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
         <f>F!A13&amp;"-"&amp;F!E13&amp;", "</f>
-        <v xml:space="preserve">Intelligence Analysis-17, </v>
+        <v xml:space="preserve">Intelligence Analysis-16, </v>
       </c>
       <c r="B2" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Intelligence Analysis-17, </v>
+        <v xml:space="preserve">Intelligence Analysis-16, </v>
       </c>
       <c r="D2" t="str">
         <f>F!J13&amp;", "</f>
@@ -1784,17 +1794,17 @@
       </c>
       <c r="G2" t="str">
         <f>B7&amp;B8&amp;B9&amp;B10&amp;B11&amp;B12</f>
-        <v xml:space="preserve">Free Fall-8, Economics-16, Computer Programming-16, Research-17, Autohypnosis-13, Expert: Projections-16, </v>
+        <v xml:space="preserve">Free Fall-8, Economics-15, Computer Programming-15, Research-16, Autohypnosis-12, Expert: Projections-15, </v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
         <f>F!A14&amp;"-"&amp;F!E14&amp;", "</f>
-        <v xml:space="preserve">Finance-16, </v>
+        <v xml:space="preserve">Finance-15, </v>
       </c>
       <c r="B3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Finance-16, </v>
+        <v xml:space="preserve">Finance-15, </v>
       </c>
       <c r="D3" t="str">
         <f>F!J14&amp;", "</f>
@@ -1806,17 +1816,17 @@
       </c>
       <c r="G3" t="str">
         <f>B13&amp;B14&amp;B15&amp;B16&amp;B17&amp;B18</f>
-        <v xml:space="preserve">Observation-16, Speed-Reading-17, Physics-10, Acting-12, </v>
+        <v xml:space="preserve">Observation-15, Speed-Reading-16, Physics-9, Acting-9, Savoir-Faire: corporate-9, Video Gaming-11, </v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
         <f>F!A15&amp;"-"&amp;F!E15&amp;", "</f>
-        <v xml:space="preserve">Market Analysis-17, </v>
+        <v xml:space="preserve">Market Analysis-16, </v>
       </c>
       <c r="B4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Market Analysis-17, </v>
+        <v xml:space="preserve">Market Analysis-16, </v>
       </c>
       <c r="D4" t="str">
         <f>F!J15&amp;", "</f>
@@ -1828,17 +1838,17 @@
       </c>
       <c r="G4" t="str">
         <f>B19&amp;B20&amp;B21&amp;B22&amp;B23&amp;B24</f>
-        <v/>
+        <v xml:space="preserve">Physics-9, </v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
         <f>F!A16&amp;"-"&amp;F!E16&amp;", "</f>
-        <v xml:space="preserve">Diplomacy-13, </v>
+        <v xml:space="preserve">Diplomacy-12, </v>
       </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Diplomacy-13, </v>
+        <v xml:space="preserve">Diplomacy-12, </v>
       </c>
       <c r="D5" t="str">
         <f>F!J16&amp;", "</f>
@@ -1896,11 +1906,11 @@
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="str">
         <f>F!A19&amp;"-"&amp;F!E19&amp;", "</f>
-        <v xml:space="preserve">Economics-16, </v>
+        <v xml:space="preserve">Economics-15, </v>
       </c>
       <c r="B8" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Economics-16, </v>
+        <v xml:space="preserve">Economics-15, </v>
       </c>
       <c r="D8" t="str">
         <f>F!J19&amp;", "</f>
@@ -1914,11 +1924,11 @@
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="str">
         <f>F!A20&amp;"-"&amp;F!E20&amp;", "</f>
-        <v xml:space="preserve">Computer Programming-16, </v>
+        <v xml:space="preserve">Computer Programming-15, </v>
       </c>
       <c r="B9" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Computer Programming-16, </v>
+        <v xml:space="preserve">Computer Programming-15, </v>
       </c>
       <c r="D9" t="str">
         <f>F!J20&amp;", "</f>
@@ -1932,101 +1942,101 @@
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
         <f>F!A21&amp;"-"&amp;F!E21&amp;", "</f>
-        <v xml:space="preserve">Research-17, </v>
+        <v xml:space="preserve">Research-16, </v>
       </c>
       <c r="B10" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Research-17, </v>
+        <v xml:space="preserve">Research-16, </v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
         <f>F!A22&amp;"-"&amp;F!E22&amp;", "</f>
-        <v xml:space="preserve">Autohypnosis-13, </v>
+        <v xml:space="preserve">Autohypnosis-12, </v>
       </c>
       <c r="B11" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Autohypnosis-13, </v>
+        <v xml:space="preserve">Autohypnosis-12, </v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
         <f>F!A23&amp;"-"&amp;F!E23&amp;", "</f>
-        <v xml:space="preserve">Expert: Projections-16, </v>
+        <v xml:space="preserve">Expert: Projections-15, </v>
       </c>
       <c r="B12" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Expert: Projections-16, </v>
+        <v xml:space="preserve">Expert: Projections-15, </v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
         <f>F!A24&amp;"-"&amp;F!E24&amp;", "</f>
-        <v xml:space="preserve">Observation-16, </v>
+        <v xml:space="preserve">Observation-15, </v>
       </c>
       <c r="B13" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Observation-16, </v>
+        <v xml:space="preserve">Observation-15, </v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
         <f>F!A25&amp;"-"&amp;F!E25&amp;", "</f>
-        <v xml:space="preserve">Speed-Reading-17, </v>
+        <v xml:space="preserve">Speed-Reading-16, </v>
       </c>
       <c r="B14" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Speed-Reading-17, </v>
+        <v xml:space="preserve">Speed-Reading-16, </v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
         <f>F!A26&amp;"-"&amp;F!E26&amp;", "</f>
-        <v xml:space="preserve">Physics-10, </v>
+        <v xml:space="preserve">Physics-9, </v>
       </c>
       <c r="B15" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Physics-10, </v>
+        <v xml:space="preserve">Physics-9, </v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="str">
         <f>F!A27&amp;"-"&amp;F!E27&amp;", "</f>
-        <v xml:space="preserve">Acting-12, </v>
+        <v xml:space="preserve">Acting-9, </v>
       </c>
       <c r="B16" t="str">
         <f t="shared" ref="B16:B30" si="2">IF(ISNUMBER(SEARCH("-",A16)),A16,"")</f>
-        <v xml:space="preserve">Acting-12, </v>
+        <v xml:space="preserve">Acting-9, </v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" t="e">
+      <c r="A17" t="str">
         <f>F!A28&amp;"-"&amp;F!E28&amp;", "</f>
-        <v>#N/A</v>
+        <v xml:space="preserve">Savoir-Faire: corporate-9, </v>
       </c>
       <c r="B17" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v xml:space="preserve">Savoir-Faire: corporate-9, </v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" t="e">
+      <c r="A18" t="str">
         <f>F!A29&amp;"-"&amp;F!E29&amp;", "</f>
-        <v>#N/A</v>
+        <v xml:space="preserve">Video Gaming-11, </v>
       </c>
       <c r="B18" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v xml:space="preserve">Video Gaming-11, </v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" t="e">
+      <c r="A19" t="str">
         <f>F!A30&amp;"-"&amp;F!E30&amp;", "</f>
-        <v>#N/A</v>
+        <v xml:space="preserve">Physics-9, </v>
       </c>
       <c r="B19" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v xml:space="preserve">Physics-9, </v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">

--- a/haunting_mars/stats_kwame.xlsx
+++ b/haunting_mars/stats_kwame.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10211"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dare/Documents/personal/rpg/posthuman/haunting_mars/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC8CAA08-FE5B-384E-8372-2A6B78855E21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E18752A2-A08E-7A43-9B2E-00190B30A46F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13140" yWindow="500" windowWidth="20460" windowHeight="20300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -939,7 +939,7 @@
   <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:H7"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1011,7 +1011,7 @@
       </c>
       <c r="G3" s="3">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H3" s="3">
         <f t="shared" si="0"/>
@@ -1037,7 +1037,7 @@
         <v>10</v>
       </c>
       <c r="G4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H4">
         <v>10</v>
@@ -1660,7 +1660,7 @@
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
         <f>"ST "&amp;(F!C3)&amp;" DX "&amp;(F!D3)&amp;" IQ "&amp;(F!E3)&amp;" WILL "&amp;(F!F3)&amp;" PER "&amp;(F!G3)&amp;" HT "&amp;(F!H3)</f>
-        <v>ST 9 DX 10 IQ 14 WILL 10 PER 10 HT 10</v>
+        <v>ST 9 DX 10 IQ 14 WILL 10 PER 9 HT 10</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">

--- a/haunting_mars/stats_kwame.xlsx
+++ b/haunting_mars/stats_kwame.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10414"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dare/Documents/personal/rpg/posthuman/haunting_mars/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E18752A2-A08E-7A43-9B2E-00190B30A46F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B4BACB7-0A78-AE4D-A713-F969B96E1771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13140" yWindow="500" windowWidth="20460" windowHeight="20300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -166,19 +166,19 @@
     <t>Acting</t>
   </si>
   <si>
-    <t>175 cm, 90 kg</t>
-  </si>
-  <si>
     <t>Savoir-Faire: corporate</t>
   </si>
   <si>
     <t>Video Gaming</t>
   </si>
   <si>
-    <t>Ocon SFF Lo-Grav</t>
-  </si>
-  <si>
-    <t>DR 3, Mesh Inserts, Cyberbrain, Mnemonic Augmentation, Cortical Stack, Access Jacks</t>
+    <t>Ocon Savant</t>
+  </si>
+  <si>
+    <t>DR 2, Mesh Inserts, Cyberbrain, Mnemonic Augmentation, Cortical Stack, Access Jacks, Anosmia</t>
+  </si>
+  <si>
+    <t>179 cm, 70 kg</t>
   </si>
 </sst>
 </file>
@@ -939,7 +939,7 @@
   <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -986,7 +986,7 @@
         <v>40</v>
       </c>
       <c r="J2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:14" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.25">
@@ -999,11 +999,11 @@
       </c>
       <c r="D3" s="3">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" s="3">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" s="3">
         <f t="shared" si="0"/>
@@ -1011,36 +1011,36 @@
       </c>
       <c r="G3" s="3">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H3" s="3">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C4">
         <v>10</v>
       </c>
       <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4">
         <v>11</v>
-      </c>
-      <c r="E4">
-        <v>10</v>
       </c>
       <c r="F4">
         <v>10</v>
       </c>
       <c r="G4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -1079,7 +1079,7 @@
     </row>
     <row r="7" spans="1:14" ht="77" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -1145,11 +1145,11 @@
       </c>
       <c r="E12" s="1">
         <f t="shared" ref="E12:E35" si="1">H12+C12+D12</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H12">
         <f>INDEX($C$3:$H$3,(MATCH($B12,$2:$2,0)-2))</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J12" t="s">
         <v>32</v>
@@ -1167,11 +1167,11 @@
       </c>
       <c r="E13" s="1">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H13">
         <f t="shared" ref="H13:H29" si="2">INDEX($C$3:$H$3,(MATCH($B13,$2:$2,0)-2))</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J13" t="s">
         <v>33</v>
@@ -1189,11 +1189,11 @@
       </c>
       <c r="E14" s="1">
         <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="2"/>
         <v>15</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="2"/>
-        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
@@ -1208,11 +1208,11 @@
       </c>
       <c r="E15" s="1">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H15">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
@@ -1227,11 +1227,11 @@
       </c>
       <c r="E16" s="1">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H16">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -1246,11 +1246,11 @@
       </c>
       <c r="E17" s="1">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H17">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -1265,11 +1265,11 @@
       </c>
       <c r="E18" s="1">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H18">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -1284,11 +1284,11 @@
       </c>
       <c r="E19" s="1">
         <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="2"/>
         <v>15</v>
-      </c>
-      <c r="H19">
-        <f t="shared" si="2"/>
-        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -1303,11 +1303,11 @@
       </c>
       <c r="E20" s="1">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H20">
         <f>INDEX($C$3:$H$3,(MATCH($B20,$2:$2,0)-2))</f>
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -1322,11 +1322,11 @@
       </c>
       <c r="E21" s="1">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H21">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -1360,11 +1360,11 @@
       </c>
       <c r="E23" s="1">
         <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="2"/>
         <v>15</v>
-      </c>
-      <c r="H23">
-        <f t="shared" si="2"/>
-        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -1379,11 +1379,11 @@
       </c>
       <c r="E24" s="1">
         <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="2"/>
         <v>15</v>
-      </c>
-      <c r="H24">
-        <f t="shared" si="2"/>
-        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -1398,11 +1398,11 @@
       </c>
       <c r="E25" s="1">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H25">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -1417,11 +1417,11 @@
       </c>
       <c r="E26" s="1">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H26">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -1436,16 +1436,16 @@
       </c>
       <c r="E27" s="1">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H27">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B28" t="s">
         <v>2</v>
@@ -1455,16 +1455,16 @@
       </c>
       <c r="E28" s="1">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H28">
         <f>INDEX($C$3:$H$3,(MATCH($B28,$2:$2,0)-2))</f>
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B29" t="s">
         <v>2</v>
@@ -1474,11 +1474,11 @@
       </c>
       <c r="E29" s="1">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H29">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
@@ -1493,11 +1493,11 @@
       </c>
       <c r="E30" s="1">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H30">
         <f t="shared" ref="H30:H41" si="3">INDEX($C$3:$H$3,(MATCH($B30,$2:$2,0)-2))</f>
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
@@ -1631,7 +1631,7 @@
   <dimension ref="A1:A15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A1:A15"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1654,13 +1654,13 @@
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
         <f>UPPER(F!A4)&amp;": "&amp;(F!J2)</f>
-        <v>OCON SFF LO-GRAV: 175 cm, 90 kg</v>
+        <v>OCON SAVANT: 179 cm, 70 kg</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
         <f>"ST "&amp;(F!C3)&amp;" DX "&amp;(F!D3)&amp;" IQ "&amp;(F!E3)&amp;" WILL "&amp;(F!F3)&amp;" PER "&amp;(F!G3)&amp;" HT "&amp;(F!H3)</f>
-        <v>ST 9 DX 10 IQ 14 WILL 10 PER 9 HT 10</v>
+        <v>ST 9 DX 9 IQ 15 WILL 10 PER 10 HT 11</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
@@ -1672,13 +1672,13 @@
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
         <f>F!A7</f>
-        <v>DR 3, Mesh Inserts, Cyberbrain, Mnemonic Augmentation, Cortical Stack, Access Jacks</v>
+        <v>DR 2, Mesh Inserts, Cyberbrain, Mnemonic Augmentation, Cortical Stack, Access Jacks, Anosmia</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="str">
         <f>SkillFormulas!E22&amp;SkillFormulas!F22&amp;SkillFormulas!G22&amp;SkillFormulas!H22&amp;SkillFormulas!I22&amp;SkillFormulas!J22</f>
-        <v xml:space="preserve">Somatic Aptitude -1, Coordination Aptitude -1, Intelligence Aptitude 4, </v>
+        <v xml:space="preserve">Somatic Aptitude -1, Coordination Aptitude -1, Intelligence Aptitude +4, </v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
@@ -1696,25 +1696,25 @@
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
         <f>SkillFormulas!$G$1</f>
-        <v xml:space="preserve">Mathematics (Statistics)-16, Intelligence Analysis-16, Finance-15, Market Analysis-16, Diplomacy-12, Driving: Drone-11, </v>
+        <v xml:space="preserve">Mathematics (Statistics)-17, Intelligence Analysis-17, Finance-16, Market Analysis-17, Diplomacy-13, Driving: Drone-10, </v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
         <f>SkillFormulas!$G$2</f>
-        <v xml:space="preserve">Free Fall-8, Economics-15, Computer Programming-15, Research-16, Autohypnosis-12, Expert: Projections-15, </v>
+        <v xml:space="preserve">Free Fall-7, Economics-16, Computer Programming-16, Research-17, Autohypnosis-12, Expert: Projections-16, </v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
         <f>SkillFormulas!$G$3</f>
-        <v xml:space="preserve">Observation-15, Speed-Reading-16, Physics-9, Acting-9, Savoir-Faire: corporate-9, Video Gaming-11, </v>
+        <v xml:space="preserve">Observation-16, Speed-Reading-17, Physics-10, Acting-10, Savoir-Faire: corporate-10, Video Gaming-12, </v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
         <f>SkillFormulas!G4</f>
-        <v xml:space="preserve">Physics-9, </v>
+        <v xml:space="preserve">Physics-10, </v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
@@ -1745,7 +1745,7 @@
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1756,11 +1756,11 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="str">
         <f>F!A12&amp;"-"&amp;F!E12&amp;", "</f>
-        <v xml:space="preserve">Mathematics (Statistics)-16, </v>
+        <v xml:space="preserve">Mathematics (Statistics)-17, </v>
       </c>
       <c r="B1" t="str">
         <f t="shared" ref="B1:B15" si="0">IF(ISNUMBER(SEARCH("-",A1)),A1,"")</f>
-        <v xml:space="preserve">Mathematics (Statistics)-16, </v>
+        <v xml:space="preserve">Mathematics (Statistics)-17, </v>
       </c>
       <c r="D1" t="str">
         <f>F!J12&amp;", "</f>
@@ -1772,17 +1772,17 @@
       </c>
       <c r="G1" t="str">
         <f>B1&amp;B2&amp;B3&amp;B4&amp;B5&amp;B6</f>
-        <v xml:space="preserve">Mathematics (Statistics)-16, Intelligence Analysis-16, Finance-15, Market Analysis-16, Diplomacy-12, Driving: Drone-11, </v>
+        <v xml:space="preserve">Mathematics (Statistics)-17, Intelligence Analysis-17, Finance-16, Market Analysis-17, Diplomacy-13, Driving: Drone-10, </v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
         <f>F!A13&amp;"-"&amp;F!E13&amp;", "</f>
-        <v xml:space="preserve">Intelligence Analysis-16, </v>
+        <v xml:space="preserve">Intelligence Analysis-17, </v>
       </c>
       <c r="B2" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Intelligence Analysis-16, </v>
+        <v xml:space="preserve">Intelligence Analysis-17, </v>
       </c>
       <c r="D2" t="str">
         <f>F!J13&amp;", "</f>
@@ -1794,17 +1794,17 @@
       </c>
       <c r="G2" t="str">
         <f>B7&amp;B8&amp;B9&amp;B10&amp;B11&amp;B12</f>
-        <v xml:space="preserve">Free Fall-8, Economics-15, Computer Programming-15, Research-16, Autohypnosis-12, Expert: Projections-15, </v>
+        <v xml:space="preserve">Free Fall-7, Economics-16, Computer Programming-16, Research-17, Autohypnosis-12, Expert: Projections-16, </v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
         <f>F!A14&amp;"-"&amp;F!E14&amp;", "</f>
-        <v xml:space="preserve">Finance-15, </v>
+        <v xml:space="preserve">Finance-16, </v>
       </c>
       <c r="B3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Finance-15, </v>
+        <v xml:space="preserve">Finance-16, </v>
       </c>
       <c r="D3" t="str">
         <f>F!J14&amp;", "</f>
@@ -1816,17 +1816,17 @@
       </c>
       <c r="G3" t="str">
         <f>B13&amp;B14&amp;B15&amp;B16&amp;B17&amp;B18</f>
-        <v xml:space="preserve">Observation-15, Speed-Reading-16, Physics-9, Acting-9, Savoir-Faire: corporate-9, Video Gaming-11, </v>
+        <v xml:space="preserve">Observation-16, Speed-Reading-17, Physics-10, Acting-10, Savoir-Faire: corporate-10, Video Gaming-12, </v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
         <f>F!A15&amp;"-"&amp;F!E15&amp;", "</f>
-        <v xml:space="preserve">Market Analysis-16, </v>
+        <v xml:space="preserve">Market Analysis-17, </v>
       </c>
       <c r="B4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Market Analysis-16, </v>
+        <v xml:space="preserve">Market Analysis-17, </v>
       </c>
       <c r="D4" t="str">
         <f>F!J15&amp;", "</f>
@@ -1838,17 +1838,17 @@
       </c>
       <c r="G4" t="str">
         <f>B19&amp;B20&amp;B21&amp;B22&amp;B23&amp;B24</f>
-        <v xml:space="preserve">Physics-9, </v>
+        <v xml:space="preserve">Physics-10, </v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
         <f>F!A16&amp;"-"&amp;F!E16&amp;", "</f>
-        <v xml:space="preserve">Diplomacy-12, </v>
+        <v xml:space="preserve">Diplomacy-13, </v>
       </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Diplomacy-12, </v>
+        <v xml:space="preserve">Diplomacy-13, </v>
       </c>
       <c r="D5" t="str">
         <f>F!J16&amp;", "</f>
@@ -1866,11 +1866,11 @@
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
         <f>F!A17&amp;"-"&amp;F!E17&amp;", "</f>
-        <v xml:space="preserve">Driving: Drone-11, </v>
+        <v xml:space="preserve">Driving: Drone-10, </v>
       </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Driving: Drone-11, </v>
+        <v xml:space="preserve">Driving: Drone-10, </v>
       </c>
       <c r="D6" t="str">
         <f>F!J17&amp;", "</f>
@@ -1884,11 +1884,11 @@
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="str">
         <f>F!A18&amp;"-"&amp;F!E18&amp;", "</f>
-        <v xml:space="preserve">Free Fall-8, </v>
+        <v xml:space="preserve">Free Fall-7, </v>
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Free Fall-8, </v>
+        <v xml:space="preserve">Free Fall-7, </v>
       </c>
       <c r="D7" t="str">
         <f>F!J18&amp;", "</f>
@@ -1906,11 +1906,11 @@
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="str">
         <f>F!A19&amp;"-"&amp;F!E19&amp;", "</f>
-        <v xml:space="preserve">Economics-15, </v>
+        <v xml:space="preserve">Economics-16, </v>
       </c>
       <c r="B8" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Economics-15, </v>
+        <v xml:space="preserve">Economics-16, </v>
       </c>
       <c r="D8" t="str">
         <f>F!J19&amp;", "</f>
@@ -1924,11 +1924,11 @@
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="str">
         <f>F!A20&amp;"-"&amp;F!E20&amp;", "</f>
-        <v xml:space="preserve">Computer Programming-15, </v>
+        <v xml:space="preserve">Computer Programming-16, </v>
       </c>
       <c r="B9" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Computer Programming-15, </v>
+        <v xml:space="preserve">Computer Programming-16, </v>
       </c>
       <c r="D9" t="str">
         <f>F!J20&amp;", "</f>
@@ -1942,11 +1942,11 @@
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
         <f>F!A21&amp;"-"&amp;F!E21&amp;", "</f>
-        <v xml:space="preserve">Research-16, </v>
+        <v xml:space="preserve">Research-17, </v>
       </c>
       <c r="B10" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Research-16, </v>
+        <v xml:space="preserve">Research-17, </v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -1962,81 +1962,81 @@
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
         <f>F!A23&amp;"-"&amp;F!E23&amp;", "</f>
-        <v xml:space="preserve">Expert: Projections-15, </v>
+        <v xml:space="preserve">Expert: Projections-16, </v>
       </c>
       <c r="B12" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Expert: Projections-15, </v>
+        <v xml:space="preserve">Expert: Projections-16, </v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
         <f>F!A24&amp;"-"&amp;F!E24&amp;", "</f>
-        <v xml:space="preserve">Observation-15, </v>
+        <v xml:space="preserve">Observation-16, </v>
       </c>
       <c r="B13" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Observation-15, </v>
+        <v xml:space="preserve">Observation-16, </v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
         <f>F!A25&amp;"-"&amp;F!E25&amp;", "</f>
-        <v xml:space="preserve">Speed-Reading-16, </v>
+        <v xml:space="preserve">Speed-Reading-17, </v>
       </c>
       <c r="B14" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Speed-Reading-16, </v>
+        <v xml:space="preserve">Speed-Reading-17, </v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
         <f>F!A26&amp;"-"&amp;F!E26&amp;", "</f>
-        <v xml:space="preserve">Physics-9, </v>
+        <v xml:space="preserve">Physics-10, </v>
       </c>
       <c r="B15" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Physics-9, </v>
+        <v xml:space="preserve">Physics-10, </v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="str">
         <f>F!A27&amp;"-"&amp;F!E27&amp;", "</f>
-        <v xml:space="preserve">Acting-9, </v>
+        <v xml:space="preserve">Acting-10, </v>
       </c>
       <c r="B16" t="str">
         <f t="shared" ref="B16:B30" si="2">IF(ISNUMBER(SEARCH("-",A16)),A16,"")</f>
-        <v xml:space="preserve">Acting-9, </v>
+        <v xml:space="preserve">Acting-10, </v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="str">
         <f>F!A28&amp;"-"&amp;F!E28&amp;", "</f>
-        <v xml:space="preserve">Savoir-Faire: corporate-9, </v>
+        <v xml:space="preserve">Savoir-Faire: corporate-10, </v>
       </c>
       <c r="B17" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Savoir-Faire: corporate-9, </v>
+        <v xml:space="preserve">Savoir-Faire: corporate-10, </v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
         <f>F!A29&amp;"-"&amp;F!E29&amp;", "</f>
-        <v xml:space="preserve">Video Gaming-11, </v>
+        <v xml:space="preserve">Video Gaming-12, </v>
       </c>
       <c r="B18" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Video Gaming-11, </v>
+        <v xml:space="preserve">Video Gaming-12, </v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
         <f>F!A30&amp;"-"&amp;F!E30&amp;", "</f>
-        <v xml:space="preserve">Physics-9, </v>
+        <v xml:space="preserve">Physics-10, </v>
       </c>
       <c r="B19" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Physics-9, </v>
+        <v xml:space="preserve">Physics-10, </v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -2069,27 +2069,27 @@
         <v/>
       </c>
       <c r="E22" t="str">
-        <f>IF(F!C5&lt;&gt;"","Somatic Aptitude "&amp;F!C5&amp;", ","")</f>
+        <f>IF(F!C5&lt;0,"Somatic Aptitude "&amp;F!C5&amp;", ",IF(F!C5&gt;0,"Somatic Aptitude +"&amp;F!C5&amp;", ",""))</f>
         <v xml:space="preserve">Somatic Aptitude -1, </v>
       </c>
       <c r="F22" t="str">
-        <f>IF(F!D5&lt;&gt;"","Coordination Aptitude "&amp;F!D5&amp;", ","")</f>
+        <f>IF(F!D5&lt;0,"Coordination Aptitude "&amp;F!D5&amp;", ",IF(F!D5&gt;0,"Coordination Aptitude +"&amp;F!D5&amp;", ",""))</f>
         <v xml:space="preserve">Coordination Aptitude -1, </v>
       </c>
       <c r="G22" t="str">
-        <f>IF(F!E5&lt;&gt;"","Intelligence Aptitude "&amp;F!E5&amp;", ","")</f>
-        <v xml:space="preserve">Intelligence Aptitude 4, </v>
+        <f>IF(F!E5&lt;0,"Intelligence Aptitude "&amp;F!E5&amp;", ",IF(F!E5&gt;0,"Intelligence Aptitude +"&amp;F!E5&amp;", ",""))</f>
+        <v xml:space="preserve">Intelligence Aptitude +4, </v>
       </c>
       <c r="H22" t="str">
-        <f>IF(F!F5&lt;&gt;"","Willpower Aptitude "&amp;F!F5&amp;", ","")</f>
+        <f>IF(F!F5&lt;0,"Willpower Aptitude "&amp;F!F5&amp;", ",IF(F!F5&gt;0,"Willpower Aptitude +"&amp;F!F5&amp;", ",""))</f>
         <v/>
       </c>
       <c r="I22" t="str">
-        <f>IF(F!G5&lt;&gt;"","Alertness "&amp;F!G5&amp;", ","")</f>
+        <f>IF(F!G5&lt;0,"Alertness "&amp;F!G5&amp;", ",IF(F!G5&gt;0,"Alertness +"&amp;F!G5&amp;", ",""))</f>
         <v/>
       </c>
       <c r="J22" t="str">
-        <f>IF(F!H5&lt;&gt;"","Endurance Aptitude "&amp;F!H5,"")</f>
+        <f>IF(F!H5&lt;0,"Endurance Aptitude "&amp;F!H5&amp;", ",IF(F!H5&gt;0,"Endurance Aptitude +"&amp;F!H5&amp;", ",""))</f>
         <v/>
       </c>
     </row>

--- a/haunting_mars/stats_kwame.xlsx
+++ b/haunting_mars/stats_kwame.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10916"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dare/Documents/personal/rpg/posthuman/haunting_mars/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B4BACB7-0A78-AE4D-A713-F969B96E1771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F375D52-E30C-D443-9B31-CE91BD7676B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13140" yWindow="500" windowWidth="20460" windowHeight="20300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="47">
   <si>
     <t>ST</t>
   </si>
@@ -172,13 +172,13 @@
     <t>Video Gaming</t>
   </si>
   <si>
-    <t>Ocon Savant</t>
-  </si>
-  <si>
-    <t>DR 2, Mesh Inserts, Cyberbrain, Mnemonic Augmentation, Cortical Stack, Access Jacks, Anosmia</t>
-  </si>
-  <si>
-    <t>179 cm, 70 kg</t>
+    <t>SYNTH: Fujizo Biwa</t>
+  </si>
+  <si>
+    <t>DR 3, Mesh Inserts, Cyberbrain, Mnemonic Augmentation, Cortical Stack, Access Jacks</t>
+  </si>
+  <si>
+    <t>183 cm, 90 kg</t>
   </si>
 </sst>
 </file>
@@ -236,7 +236,7 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -423,7 +423,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -431,7 +431,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -939,7 +938,7 @@
   <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="A7" sqref="A7:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -995,11 +994,11 @@
       </c>
       <c r="C3" s="3">
         <f t="shared" ref="C3:H3" si="0">C4+C5</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D3" s="3">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="3">
         <f t="shared" si="0"/>
@@ -1007,7 +1006,7 @@
       </c>
       <c r="F3" s="3">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G3" s="3">
         <f t="shared" si="0"/>
@@ -1025,16 +1024,16 @@
         <v>44</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4">
         <v>11</v>
       </c>
       <c r="F4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G4">
         <v>10</v>
@@ -1063,7 +1062,7 @@
       </c>
       <c r="K5">
         <f>(D3+H3)/4+L5</f>
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1081,20 +1080,20 @@
       <c r="A7" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="J7" s="6" t="s">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="J7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -1102,16 +1101,16 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -1246,11 +1245,11 @@
       </c>
       <c r="E17" s="1">
         <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="2"/>
         <v>10</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="2"/>
-        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -1265,11 +1264,11 @@
       </c>
       <c r="E18" s="1">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H18">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -1341,11 +1340,11 @@
       </c>
       <c r="E22" s="1">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H22">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -1482,22 +1481,13 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30" t="s">
-        <v>2</v>
-      </c>
-      <c r="C30">
-        <v>-5</v>
-      </c>
-      <c r="E30" s="1">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="H30">
+      <c r="E30" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H30" t="e">
         <f t="shared" ref="H30:H41" si="3">INDEX($C$3:$H$3,(MATCH($B30,$2:$2,0)-2))</f>
-        <v>15</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
@@ -1654,25 +1644,25 @@
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
         <f>UPPER(F!A4)&amp;": "&amp;(F!J2)</f>
-        <v>OCON SAVANT: 179 cm, 70 kg</v>
+        <v>SYNTH: FUJIZO BIWA: 183 cm, 90 kg</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
         <f>"ST "&amp;(F!C3)&amp;" DX "&amp;(F!D3)&amp;" IQ "&amp;(F!E3)&amp;" WILL "&amp;(F!F3)&amp;" PER "&amp;(F!G3)&amp;" HT "&amp;(F!H3)</f>
-        <v>ST 9 DX 9 IQ 15 WILL 10 PER 10 HT 11</v>
+        <v>ST 11 DX 10 IQ 15 WILL 11 PER 10 HT 11</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
         <f>"Speed "&amp;F!K5</f>
-        <v>Speed 5</v>
+        <v>Speed 5,25</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
         <f>F!A7</f>
-        <v>DR 2, Mesh Inserts, Cyberbrain, Mnemonic Augmentation, Cortical Stack, Access Jacks, Anosmia</v>
+        <v>DR 3, Mesh Inserts, Cyberbrain, Mnemonic Augmentation, Cortical Stack, Access Jacks</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
@@ -1696,13 +1686,13 @@
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
         <f>SkillFormulas!$G$1</f>
-        <v xml:space="preserve">Mathematics (Statistics)-17, Intelligence Analysis-17, Finance-16, Market Analysis-17, Diplomacy-13, Driving: Drone-10, </v>
+        <v xml:space="preserve">Mathematics (Statistics)-17, Intelligence Analysis-17, Finance-16, Market Analysis-17, Diplomacy-13, Driving: Drone-11, </v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
         <f>SkillFormulas!$G$2</f>
-        <v xml:space="preserve">Free Fall-7, Economics-16, Computer Programming-16, Research-17, Autohypnosis-12, Expert: Projections-16, </v>
+        <v xml:space="preserve">Free Fall-8, Economics-16, Computer Programming-16, Research-17, Autohypnosis-13, Expert: Projections-16, </v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
@@ -1714,7 +1704,7 @@
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
         <f>SkillFormulas!G4</f>
-        <v xml:space="preserve">Physics-10, </v>
+        <v/>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
@@ -1772,7 +1762,7 @@
       </c>
       <c r="G1" t="str">
         <f>B1&amp;B2&amp;B3&amp;B4&amp;B5&amp;B6</f>
-        <v xml:space="preserve">Mathematics (Statistics)-17, Intelligence Analysis-17, Finance-16, Market Analysis-17, Diplomacy-13, Driving: Drone-10, </v>
+        <v xml:space="preserve">Mathematics (Statistics)-17, Intelligence Analysis-17, Finance-16, Market Analysis-17, Diplomacy-13, Driving: Drone-11, </v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -1794,7 +1784,7 @@
       </c>
       <c r="G2" t="str">
         <f>B7&amp;B8&amp;B9&amp;B10&amp;B11&amp;B12</f>
-        <v xml:space="preserve">Free Fall-7, Economics-16, Computer Programming-16, Research-17, Autohypnosis-12, Expert: Projections-16, </v>
+        <v xml:space="preserve">Free Fall-8, Economics-16, Computer Programming-16, Research-17, Autohypnosis-13, Expert: Projections-16, </v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -1838,7 +1828,7 @@
       </c>
       <c r="G4" t="str">
         <f>B19&amp;B20&amp;B21&amp;B22&amp;B23&amp;B24</f>
-        <v xml:space="preserve">Physics-10, </v>
+        <v/>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -1866,11 +1856,11 @@
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
         <f>F!A17&amp;"-"&amp;F!E17&amp;", "</f>
-        <v xml:space="preserve">Driving: Drone-10, </v>
+        <v xml:space="preserve">Driving: Drone-11, </v>
       </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Driving: Drone-10, </v>
+        <v xml:space="preserve">Driving: Drone-11, </v>
       </c>
       <c r="D6" t="str">
         <f>F!J17&amp;", "</f>
@@ -1884,11 +1874,11 @@
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="str">
         <f>F!A18&amp;"-"&amp;F!E18&amp;", "</f>
-        <v xml:space="preserve">Free Fall-7, </v>
+        <v xml:space="preserve">Free Fall-8, </v>
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Free Fall-7, </v>
+        <v xml:space="preserve">Free Fall-8, </v>
       </c>
       <c r="D7" t="str">
         <f>F!J18&amp;", "</f>
@@ -1952,11 +1942,11 @@
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
         <f>F!A22&amp;"-"&amp;F!E22&amp;", "</f>
-        <v xml:space="preserve">Autohypnosis-12, </v>
+        <v xml:space="preserve">Autohypnosis-13, </v>
       </c>
       <c r="B11" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Autohypnosis-12, </v>
+        <v xml:space="preserve">Autohypnosis-13, </v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -2030,13 +2020,13 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" t="str">
+      <c r="A19" t="e">
         <f>F!A30&amp;"-"&amp;F!E30&amp;", "</f>
-        <v xml:space="preserve">Physics-10, </v>
+        <v>#N/A</v>
       </c>
       <c r="B19" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Physics-10, </v>
+        <v/>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
